--- a/excel/Sep2023.xlsx
+++ b/excel/Sep2023.xlsx
@@ -684,7 +684,7 @@
       <c r="B8" s="10" t="n"/>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>3     Agent Seats @$33.333333333333336 per agent/month</t>
+          <t>3     Agent Seats @$33.3 per agent/month</t>
         </is>
       </c>
       <c r="D8" s="10" t="n"/>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="E36" s="12" t="n">
-        <v>0</v>
+        <v>5389</v>
       </c>
       <c r="F36" s="13" t="n">
-        <v>0</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="37">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="F40" s="16" t="n">
-        <v>220.84</v>
+        <v>298.98</v>
       </c>
     </row>
     <row r="41">
@@ -1726,14 +1726,12 @@
       <c r="B70" s="10" t="n"/>
       <c r="C70" s="19" t="inlineStr">
         <is>
-          <t>3     Agent Seats @$-16.666666666666668 per agent/month</t>
+          <t>3     Agent Seats</t>
         </is>
       </c>
       <c r="D70" s="19" t="n"/>
       <c r="E70" s="19" t="n"/>
-      <c r="F70" s="20" t="n">
-        <v>-50</v>
-      </c>
+      <c r="F70" s="19" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="10" t="n"/>
@@ -1902,7 +1900,7 @@
         </is>
       </c>
       <c r="F80" s="16" t="n">
-        <v>258.16</v>
+        <v>308.16</v>
       </c>
     </row>
     <row r="81">
@@ -4343,10 +4341,10 @@
         </is>
       </c>
       <c r="E225" s="12" t="n">
-        <v>138767</v>
+        <v>133378</v>
       </c>
       <c r="F225" s="13" t="n">
-        <v>1975.34</v>
+        <v>1897.2</v>
       </c>
     </row>
     <row r="226">
@@ -4420,7 +4418,7 @@
         </is>
       </c>
       <c r="F229" s="16" t="n">
-        <v>1975.34</v>
+        <v>1897.2</v>
       </c>
     </row>
     <row r="230">
@@ -5124,14 +5122,12 @@
       <c r="B272" s="10" t="n"/>
       <c r="C272" s="19" t="inlineStr">
         <is>
-          <t>1     Agent Seats @$-25.0 per agent/month</t>
+          <t>1     Agent Seats</t>
         </is>
       </c>
       <c r="D272" s="19" t="n"/>
       <c r="E272" s="19" t="n"/>
-      <c r="F272" s="20" t="n">
-        <v>-25</v>
-      </c>
+      <c r="F272" s="19" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="10" t="n"/>
@@ -5300,7 +5296,7 @@
         </is>
       </c>
       <c r="F282" s="16" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283">
@@ -6683,10 +6679,10 @@
         </is>
       </c>
       <c r="E365" s="12" t="n">
-        <v>16809</v>
+        <v>14840</v>
       </c>
       <c r="F365" s="13" t="n">
-        <v>249.34</v>
+        <v>212.84</v>
       </c>
     </row>
     <row r="366">
@@ -6760,7 +6756,7 @@
         </is>
       </c>
       <c r="F369" s="16" t="n">
-        <v>249.88</v>
+        <v>213.38</v>
       </c>
     </row>
     <row r="370">
@@ -9421,10 +9417,10 @@
         </is>
       </c>
       <c r="E528" s="12" t="n">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="F528" s="13" t="n">
-        <v>0</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="529">
@@ -9498,7 +9494,7 @@
         </is>
       </c>
       <c r="F532" s="16" t="n">
-        <v>500</v>
+        <v>536.5</v>
       </c>
     </row>
     <row r="533">
@@ -10552,7 +10548,7 @@
       <c r="B594" s="10" t="n"/>
       <c r="C594" s="10" t="inlineStr">
         <is>
-          <t>3     Agent Seats @$66.66666666666667 per agent/month</t>
+          <t>3     Agent Seats @$66.7 per agent/month</t>
         </is>
       </c>
       <c r="D594" s="10" t="n"/>
@@ -12892,7 +12888,7 @@
       <c r="D729" s="23" t="n"/>
       <c r="E729" s="23" t="n"/>
       <c r="F729" s="24" t="n">
-        <v>21414.36</v>
+        <v>21489.36</v>
       </c>
     </row>
     <row r="730">
